--- a/ANALYSIS SCRIPTS/channelsremoved.xlsx
+++ b/ANALYSIS SCRIPTS/channelsremoved.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="12" uniqueCount="12">
   <si>
     <t>NDARVX375BR6</t>
   </si>
@@ -34,6 +34,21 @@
   </si>
   <si>
     <t>NDARWK546QR2</t>
+  </si>
+  <si>
+    <t>NDARAS648DT4</t>
+  </si>
+  <si>
+    <t>NDARLM531OY3</t>
+  </si>
+  <si>
+    <t>NDARXL287BE1</t>
+  </si>
+  <si>
+    <t>NDARRF358KO3</t>
+  </si>
+  <si>
+    <t>NDARGT639XS6</t>
   </si>
 </sst>
 </file>
@@ -79,7 +94,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -97,6 +112,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/ANALYSIS SCRIPTS/channelsremoved.xlsx
+++ b/ANALYSIS SCRIPTS/channelsremoved.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="16" uniqueCount="12">
   <si>
     <t>NDARVX375BR6</t>
   </si>
@@ -94,32 +94,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="true"/>
+    <col min="1" max="1" width="15" customWidth="true"/>
     <col min="2" max="2" width="2.140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/ANALYSIS SCRIPTS/channelsremoved.xlsx
+++ b/ANALYSIS SCRIPTS/channelsremoved.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>NDARVX375BR6</t>
   </si>
@@ -50,11 +50,14 @@
   <si>
     <t>NDARGT639XS6</t>
   </si>
+  <si>
+    <t>NDARVX375BR6</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -69,7 +72,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -78,13 +81,17 @@
       <diagonal/>
     </border>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -100,8 +107,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="true"/>
-    <col min="2" max="2" width="2.140625" customWidth="true"/>
+    <col min="1" max="1" width="14.26953125" customWidth="true"/>
+    <col min="2" max="2" width="2.15625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -130,10 +137,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/ANALYSIS SCRIPTS/channelsremoved.xlsx
+++ b/ANALYSIS SCRIPTS/channelsremoved.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="26" uniqueCount="19">
   <si>
     <t>NDARVX375BR6</t>
   </si>
@@ -53,11 +53,29 @@
   <si>
     <t>NDARVX375BR6</t>
   </si>
+  <si>
+    <t>NDARFV472HU7</t>
+  </si>
+  <si>
+    <t>NDARDC882NK4</t>
+  </si>
+  <si>
+    <t>NDARWB491KR3</t>
+  </si>
+  <si>
+    <t>NDARNL224RR9</t>
+  </si>
+  <si>
+    <t>NDARTT639AB1</t>
+  </si>
+  <si>
+    <t>NDARAZC45TW3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -107,8 +125,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.26953125" customWidth="true"/>
-    <col min="2" max="2" width="2.15625" customWidth="true"/>
+    <col min="1" max="1" width="15.5703125" customWidth="true"/>
+    <col min="2" max="2" width="2.140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -137,10 +155,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B4" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/ANALYSIS SCRIPTS/channelsremoved.xlsx
+++ b/ANALYSIS SCRIPTS/channelsremoved.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>NDARVX375BR6</t>
   </si>
@@ -71,11 +71,14 @@
   <si>
     <t>NDARAZC45TW3</t>
   </si>
+  <si>
+    <t>NDARRAD237PI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -90,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -101,15 +104,19 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -125,16 +132,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="true"/>
-    <col min="2" max="2" width="2.140625" customWidth="true"/>
+    <col min="1" max="1" width="14.82421875" customWidth="true"/>
+    <col min="2" max="2" width="2.15625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
